--- a/output/fit_clients/fit_round_393.xlsx
+++ b/output/fit_clients/fit_round_393.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2396639702.6826</v>
+        <v>1700999379.378649</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1056055253317174</v>
+        <v>0.07825361716199331</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04404368572937081</v>
+        <v>0.03824637782136003</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1198319900.314305</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1848809249.538723</v>
+        <v>2452539165.892087</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1156838147582188</v>
+        <v>0.1211315750313004</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03441586718522444</v>
+        <v>0.05040714733866215</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>924404641.4252855</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5205271489.768291</v>
+        <v>3792769515.628302</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1072641821579053</v>
+        <v>0.1612737303801603</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03385056544055403</v>
+        <v>0.03392648309500344</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>142</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2602635844.472188</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4129823344.13879</v>
+        <v>4020611655.657246</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09647239911126403</v>
+        <v>0.09837624959526436</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03883627492228742</v>
+        <v>0.04453154345107056</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>145</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2064911667.218371</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2075473261.609689</v>
+        <v>2386750402.441</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1226746723193614</v>
+        <v>0.1409782141256322</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04259195483400613</v>
+        <v>0.03701481937952966</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>73</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1037736652.245156</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1940261644.977673</v>
+        <v>2315645313.018362</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07607111626477893</v>
+        <v>0.09373325204990096</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04309963221532153</v>
+        <v>0.03811369283793567</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>124</v>
-      </c>
-      <c r="J7" t="n">
-        <v>970130889.3925408</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3678788801.050686</v>
+        <v>2958060801.323707</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1803958983603585</v>
+        <v>0.1799334671614331</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03215075490854391</v>
+        <v>0.02515645610037407</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>125</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1839394527.446149</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1412112632.521025</v>
+        <v>2057226464.070167</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1604602302937665</v>
+        <v>0.1422060643993121</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02533097373383375</v>
+        <v>0.03430363314809295</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>706056424.4519994</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4520947322.017728</v>
+        <v>4873669580.509831</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1719426435696904</v>
+        <v>0.200998026080096</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03970458290044698</v>
+        <v>0.04580372186444091</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>165</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2260473723.247391</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2856235017.856267</v>
+        <v>3317311416.803586</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1562356896254125</v>
+        <v>0.1335530675853485</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04857080084638824</v>
+        <v>0.03193722012495556</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>162</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1428117441.845228</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2389126815.943521</v>
+        <v>3260210962.211769</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1853216202291322</v>
+        <v>0.1953229791100972</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05078450140513622</v>
+        <v>0.04472061752130109</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>134</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1194563370.067364</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4561593884.408365</v>
+        <v>3565416821.157813</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06590500143414241</v>
+        <v>0.099488647708672</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02924559674810298</v>
+        <v>0.02162374506510378</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>132</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2280796968.619804</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3108145227.962363</v>
+        <v>3583415652.963301</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1409148559480242</v>
+        <v>0.157822429647782</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03647853738902712</v>
+        <v>0.03953979506242678</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>125</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1554072640.60226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1827259755.019196</v>
+        <v>1823814741.617254</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08569766914545175</v>
+        <v>0.07912809755260267</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03085148879086599</v>
+        <v>0.03544167089129693</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>913630037.2250261</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2768085563.487031</v>
+        <v>2177790986.565097</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1129481788681156</v>
+        <v>0.08728250117104923</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0458173341298872</v>
+        <v>0.03577300497475744</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>80</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1384042788.626035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3841336351.283887</v>
+        <v>5104052536.25069</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1351666595340512</v>
+        <v>0.1314125877796531</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04564529602213761</v>
+        <v>0.03882645244491118</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>115</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1920668218.116549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3605239137.239658</v>
+        <v>2700937197.169187</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1479956935782919</v>
+        <v>0.1628820362818161</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02547040054952009</v>
+        <v>0.02650590064406795</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>128</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1802619555.045793</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1182610852.995506</v>
+        <v>937972075.7994676</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1399822593502301</v>
+        <v>0.1901834645837412</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02106193021913413</v>
+        <v>0.0268288087057845</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>591305500.177158</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1745486862.460456</v>
+        <v>2288133120.261282</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1390674088985098</v>
+        <v>0.1232089237615768</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01956060560740566</v>
+        <v>0.03063182465119347</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>50</v>
-      </c>
-      <c r="J20" t="n">
-        <v>872743484.6857378</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2597356064.955564</v>
+        <v>2306076266.442096</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09869584397552644</v>
+        <v>0.06466628969234382</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04255676051792502</v>
+        <v>0.04493962539529876</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>32</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1298678011.316413</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3863748595.330389</v>
+        <v>2707537324.084867</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1434992126556087</v>
+        <v>0.1393061387835773</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03522750437885036</v>
+        <v>0.04921072455845035</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>111</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1931874307.486872</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>979298376.2849435</v>
+        <v>951644793.1693288</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1584829023992331</v>
+        <v>0.1748917350346682</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0532536550269737</v>
+        <v>0.03882041983472891</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>489649261.8208674</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2825467954.262737</v>
+        <v>2504877112.817558</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1014758701600095</v>
+        <v>0.1502053297829345</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02966479600340583</v>
+        <v>0.02364778086754899</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>114</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1412734024.125274</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>924411154.279443</v>
+        <v>1248727347.59333</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09725755037319825</v>
+        <v>0.09961089509297266</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02474999572109635</v>
+        <v>0.02957342274421006</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>462205658.5233316</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1297174724.279316</v>
+        <v>1000429978.130444</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1042396548709284</v>
+        <v>0.1228259724331539</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03015466715043486</v>
+        <v>0.02629570956953187</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>648587406.9544791</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4666536442.0871</v>
+        <v>4235464588.633082</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1555896505620246</v>
+        <v>0.1319927533302682</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02437695319804412</v>
+        <v>0.01771170517074002</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>99</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2333268198.086956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2413557893.569498</v>
+        <v>2943733554.840341</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1017453084475147</v>
+        <v>0.1359485881177064</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03553433609463388</v>
+        <v>0.04831234858548498</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>127</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1206778907.116235</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4588958699.284294</v>
+        <v>5001310243.546381</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1179067919957681</v>
+        <v>0.1430263507453399</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04152757188958723</v>
+        <v>0.03306995496219386</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>173</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2294479325.677353</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2292698135.335332</v>
+        <v>2202308300.7337</v>
       </c>
       <c r="F30" t="n">
-        <v>0.106207929237291</v>
+        <v>0.09174022472417967</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03133390472546262</v>
+        <v>0.02504466960882439</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1146349138.461343</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>989521063.1674362</v>
+        <v>1098734979.066119</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08287631427304484</v>
+        <v>0.07721057252905145</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04903610099817979</v>
+        <v>0.03822774124651122</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>494760532.6093106</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1368067884.105776</v>
+        <v>1349015013.185136</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08589665283009143</v>
+        <v>0.1096095208170548</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03217203332454257</v>
+        <v>0.02752849730139653</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>684033983.0901985</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2153215264.628049</v>
+        <v>2057819604.206699</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1633552181616107</v>
+        <v>0.1353406032730446</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04585651151383241</v>
+        <v>0.05257718994545459</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>117</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1076607700.091614</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1526561409.05059</v>
+        <v>1408951937.501127</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1184095346748172</v>
+        <v>0.1020572160540199</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01964055976095583</v>
+        <v>0.02202142204290819</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>763280656.021769</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1150565754.289103</v>
+        <v>976773543.422791</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1098347470182281</v>
+        <v>0.1093740384831002</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03241397417610178</v>
+        <v>0.04003918759658725</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>575282862.7236556</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2969323838.092525</v>
+        <v>2147469580.938675</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1542442809171716</v>
+        <v>0.1231431080473445</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02429681436082285</v>
+        <v>0.02691642623685945</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>100</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1484661903.442761</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2291866762.656324</v>
+        <v>2634143503.319285</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09040380674174252</v>
+        <v>0.08623035822540405</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03843692492002074</v>
+        <v>0.03824751051049129</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>104</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1145933448.755767</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2171778153.939907</v>
+        <v>1852351081.130956</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07617578288404127</v>
+        <v>0.1088128130862317</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03124456084641894</v>
+        <v>0.02478317670445686</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1085889031.341794</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2030223816.961096</v>
+        <v>1812298653.63623</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1527025376891848</v>
+        <v>0.1884627823713266</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02140826685248719</v>
+        <v>0.02542653497667963</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1015111898.449344</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1154240883.606369</v>
+        <v>1498792467.186825</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1147200592553976</v>
+        <v>0.1233009818332718</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05591413939848786</v>
+        <v>0.05177024348617195</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>577120494.564571</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2236616030.640823</v>
+        <v>2603144497.935761</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1442529456212854</v>
+        <v>0.1587234816124082</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03108540559131872</v>
+        <v>0.04591949795165067</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>100</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1118308066.374121</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3623927614.056839</v>
+        <v>4236218780.820647</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09213231226694042</v>
+        <v>0.09099587338793858</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03353306176710329</v>
+        <v>0.04393191774423946</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>128</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1811963810.41533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2989286045.463043</v>
+        <v>2928107420.15309</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1913569130516213</v>
+        <v>0.1972884745572526</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02572295867289002</v>
+        <v>0.0254950250718514</v>
       </c>
       <c r="H43" t="b">
         <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>136</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1494643022.200762</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1627481364.004589</v>
+        <v>1560527530.641969</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1001123285022201</v>
+        <v>0.1007945538461546</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03098456388668455</v>
+        <v>0.03078460969870016</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>813740714.0269595</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2091661243.052988</v>
+        <v>2130999022.721281</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1845094497489057</v>
+        <v>0.1542967285216842</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04258195466875803</v>
+        <v>0.05506420641175599</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1045830621.647994</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4310944782.572045</v>
+        <v>5397117553.574992</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1740495601239229</v>
+        <v>0.1081762850429613</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05524485908636394</v>
+        <v>0.05922938364650258</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>139</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2155472378.646353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3833120330.516085</v>
+        <v>3610107973.767472</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1243620848113537</v>
+        <v>0.1553747149999563</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05070622716552221</v>
+        <v>0.05179559472775187</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>106</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1916560154.955729</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3259063170.120362</v>
+        <v>3571958169.9234</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08940164254628252</v>
+        <v>0.07448481154374234</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02408551467885701</v>
+        <v>0.03467396769308953</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>129</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1629531662.538007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1426859318.085926</v>
+        <v>1893039898.901381</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1433371043103482</v>
+        <v>0.124978602107016</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02896361536341886</v>
+        <v>0.04406350082773865</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>713429702.4390782</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4051632319.12189</v>
+        <v>3835907897.013617</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1546959702645693</v>
+        <v>0.1323169907437075</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04694725791556843</v>
+        <v>0.04519278022228341</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>134</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2025816144.576803</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1265473440.239613</v>
+        <v>1235139097.132268</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1286791727588527</v>
+        <v>0.1732789330315006</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04981326150070012</v>
+        <v>0.04756070901024151</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>632736761.0793126</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4416257652.430017</v>
+        <v>3825524891.544493</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1114247370601518</v>
+        <v>0.1183795624018821</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05042621611631147</v>
+        <v>0.05979673899471794</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>162</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2208128858.208126</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3305404623.412068</v>
+        <v>3416086834.839329</v>
       </c>
       <c r="F53" t="n">
-        <v>0.172533255321832</v>
+        <v>0.2033385552613291</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02431145860345501</v>
+        <v>0.02485759173371</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>112</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1652702323.032956</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4014675392.482606</v>
+        <v>4041696434.993541</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1605483047782873</v>
+        <v>0.1672559455736835</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03692990467925304</v>
+        <v>0.05241660403854308</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>129</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2007337761.477741</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4979166381.248796</v>
+        <v>3123559520.187074</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1389849145437983</v>
+        <v>0.1840472166226034</v>
       </c>
       <c r="G55" t="n">
-        <v>0.01982511495017105</v>
+        <v>0.027060901828325</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2489583208.786981</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1277349857.734722</v>
+        <v>1384827570.082494</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1006297020088336</v>
+        <v>0.1501599928199264</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04324122147248906</v>
+        <v>0.04412250241901385</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>638675004.1004567</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3603947301.965853</v>
+        <v>3296980272.145178</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1366629070146233</v>
+        <v>0.130015027895376</v>
       </c>
       <c r="G57" t="n">
-        <v>0.021781720683827</v>
+        <v>0.02140715164214009</v>
       </c>
       <c r="H57" t="b">
         <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>124</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1801973706.109729</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1166288474.150411</v>
+        <v>1764502572.041904</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1721586863714605</v>
+        <v>0.1908437258456011</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02540378548560853</v>
+        <v>0.03759643745348802</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>583144298.669389</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3290894344.427515</v>
+        <v>3571078919.98448</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08163861158882568</v>
+        <v>0.08729802114258001</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04244643307887611</v>
+        <v>0.03669761185697955</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>109</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1645447182.385429</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2943916426.422635</v>
+        <v>3650185167.365843</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1606227356964707</v>
+        <v>0.1287593030360296</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0231421477696185</v>
+        <v>0.03294578550760118</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>122</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1471958277.691675</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2337234963.236719</v>
+        <v>2236298853.519853</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1764190423058679</v>
+        <v>0.1186059465930654</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02642099522044858</v>
+        <v>0.02089848967811655</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>135</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1168617524.594258</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1549128692.331039</v>
+        <v>1368019313.654387</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1608402572910058</v>
+        <v>0.1291500721686872</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03661623695566153</v>
+        <v>0.03488827090620757</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>774564336.5789435</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3529045506.108707</v>
+        <v>5318659248.118913</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1057331786698717</v>
+        <v>0.07076897767519198</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0358680178467194</v>
+        <v>0.02967436763791072</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>111</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1764522836.492165</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3686334250.684207</v>
+        <v>4229120233.276102</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1308795931003934</v>
+        <v>0.1792478190141187</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02987452637392376</v>
+        <v>0.03417931617154141</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>122</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1843167139.155759</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4477473187.836357</v>
+        <v>4615600940.106821</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1252882836233881</v>
+        <v>0.135802468214594</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02308108032816709</v>
+        <v>0.02720757369128957</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>140</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2238736584.030616</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3658137702.082297</v>
+        <v>3463358164.433845</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1450180139630164</v>
+        <v>0.1090808126755528</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04999120544869947</v>
+        <v>0.03896229664374199</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>115</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1829068806.324393</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2325551470.264722</v>
+        <v>2580790845.10061</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06577110547811021</v>
+        <v>0.08822550147651849</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0437131572953069</v>
+        <v>0.04502234921837268</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>126</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1162775810.545933</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4537748714.290636</v>
+        <v>4328737234.037443</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1180053431700494</v>
+        <v>0.1270560950056211</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04340932770230765</v>
+        <v>0.03202274928564856</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>126</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2268874385.536605</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1771544351.358074</v>
+        <v>1967366091.62042</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1816471461921046</v>
+        <v>0.1401121966054359</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05044040276670683</v>
+        <v>0.05439181816551364</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>885772151.1341345</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3141620873.753552</v>
+        <v>3681479790.513063</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0689886471677164</v>
+        <v>0.07353745414144974</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04032664728364336</v>
+        <v>0.03753841500654791</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>112</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1570810423.10706</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3986517593.647078</v>
+        <v>4040747095.721272</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1623250535373209</v>
+        <v>0.1438961673301587</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02629200789528865</v>
+        <v>0.03136260071830132</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>143</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1993258826.918521</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2180790338.869642</v>
+        <v>1610872852.539247</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1085392870072028</v>
+        <v>0.08042812440077374</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04800968401301855</v>
+        <v>0.05293094955106437</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1090395086.608102</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3134900490.797718</v>
+        <v>2382817040.727111</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07796608062426642</v>
+        <v>0.09499605060489597</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0471259581129754</v>
+        <v>0.03219549870237844</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>149</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1567450229.036747</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3200241697.811373</v>
+        <v>2566601368.423254</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1821246218479652</v>
+        <v>0.1259959511757239</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03357737693503204</v>
+        <v>0.02261782630594661</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>134</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1600120897.004799</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2146786963.824106</v>
+        <v>1953300925.591986</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1538294443794613</v>
+        <v>0.1173408784248994</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03803693119549523</v>
+        <v>0.03743899135846093</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1073393432.300076</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3978470023.776238</v>
+        <v>4037633774.622459</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1126128290156638</v>
+        <v>0.08904050792977376</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02189634429122826</v>
+        <v>0.02310598910439434</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>90</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1989234995.717716</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1522454564.109886</v>
+        <v>2204652911.393507</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1390609288199537</v>
+        <v>0.1418897213256744</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03022638301658141</v>
+        <v>0.0276259902361817</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>761227273.0623116</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3012281089.571846</v>
+        <v>3150081228.028547</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1349317832570712</v>
+        <v>0.1001201775146132</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0360357232793699</v>
+        <v>0.03611704334122141</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>136</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1506140581.228402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1481586183.212203</v>
+        <v>1624070723.881063</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1180064288338543</v>
+        <v>0.1433060374578578</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04047093584662243</v>
+        <v>0.0385608171085862</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>740793122.576614</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3827909089.1201</v>
+        <v>4513605686.685864</v>
       </c>
       <c r="F80" t="n">
-        <v>0.082924617086654</v>
+        <v>0.09658326642917529</v>
       </c>
       <c r="G80" t="n">
-        <v>0.037459769190348</v>
+        <v>0.02839567704272488</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>85</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1913954535.482856</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3262453095.477429</v>
+        <v>4518178011.726539</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08390765617393806</v>
+        <v>0.09657342105103475</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02290197851574732</v>
+        <v>0.02426998205489762</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>89</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1631226483.586586</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4749682236.916515</v>
+        <v>3807895792.196002</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2065226993893254</v>
+        <v>0.1816235444587319</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01939385372635204</v>
+        <v>0.02466684092694254</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>137</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2374841116.373216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1726010860.801739</v>
+        <v>2302622523.545039</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1137139180323577</v>
+        <v>0.1126752890501164</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03511252070269218</v>
+        <v>0.03791982829799306</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>863005381.6427499</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2085163379.385388</v>
+        <v>2118494949.490311</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1043573027681388</v>
+        <v>0.1145374649993904</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04792623587886332</v>
+        <v>0.03503996072883409</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>5</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1042581682.247842</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3418159297.913086</v>
+        <v>3480768870.00969</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1853284644846981</v>
+        <v>0.1454791004938682</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04487764471230501</v>
+        <v>0.04758224076987966</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>147</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1709079755.273771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1881535560.866633</v>
+        <v>1726944300.441144</v>
       </c>
       <c r="F86" t="n">
-        <v>0.138454866850163</v>
+        <v>0.1674791798655652</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02427478835102213</v>
+        <v>0.02252384203366225</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>52</v>
-      </c>
-      <c r="J86" t="n">
-        <v>940767791.6070704</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1248395139.425139</v>
+        <v>927473697.9485445</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1166074066089214</v>
+        <v>0.1458243011056315</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04331912103790444</v>
+        <v>0.03053437306524885</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>624197637.7183053</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2733790710.413938</v>
+        <v>2411337688.588474</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1783593547523763</v>
+        <v>0.1497625187990315</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02633846544832162</v>
+        <v>0.03348787594000209</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>154</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1366895359.372931</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2200173528.297711</v>
+        <v>3406898316.426384</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1088677531256048</v>
+        <v>0.1018638225305036</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03799083979389581</v>
+        <v>0.02748800375385088</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>132</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1100086860.901648</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1306502404.204055</v>
+        <v>1728783923.221428</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08622752702542363</v>
+        <v>0.1188925122723337</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04533248291483283</v>
+        <v>0.05015208153818979</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>653251145.401409</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1664076433.967136</v>
+        <v>2106552083.191025</v>
       </c>
       <c r="F91" t="n">
-        <v>0.146011280509811</v>
+        <v>0.1932688640291958</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04387956288182834</v>
+        <v>0.04957438639534604</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>832038234.026548</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2601917300.195532</v>
+        <v>2878003135.438451</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0973196629213207</v>
+        <v>0.09719621355473415</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03235564352500175</v>
+        <v>0.03965100544968633</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>110</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1300958641.770657</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5031028581.03126</v>
+        <v>4818214213.439786</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09533649367964621</v>
+        <v>0.1263219270441345</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04223169712335225</v>
+        <v>0.05231167478054675</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>122</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2515514224.4747</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2218389160.174634</v>
+        <v>2394672634.281601</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1394023153671889</v>
+        <v>0.1684674268150105</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03814564775473946</v>
+        <v>0.03241424659397181</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1109194606.88777</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2686405443.442563</v>
+        <v>2655947922.010156</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1235783450227822</v>
+        <v>0.1124773562082796</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03531698620428278</v>
+        <v>0.03773474886737512</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>95</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1343202744.304297</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2148599887.160697</v>
+        <v>1750106055.243157</v>
       </c>
       <c r="F96" t="n">
-        <v>0.129618406179065</v>
+        <v>0.1098721159587111</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04168805348049991</v>
+        <v>0.04412751697075941</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1074299914.700974</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3642937922.00155</v>
+        <v>4673286087.655747</v>
       </c>
       <c r="F97" t="n">
-        <v>0.133957735164045</v>
+        <v>0.1675682717271946</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02449465197123724</v>
+        <v>0.0221271197512553</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>125</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1821468988.688052</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3900758867.799395</v>
+        <v>3428989124.539618</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08135351532668764</v>
+        <v>0.08677462896509885</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03247851160055009</v>
+        <v>0.0309391543771643</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>108</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1950379479.724971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2741276008.208818</v>
+        <v>3185587487.008901</v>
       </c>
       <c r="F99" t="n">
-        <v>0.139113324849367</v>
+        <v>0.09380424332829206</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03035462989746442</v>
+        <v>0.03057206949772033</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>124</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1370637971.330937</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3549439034.147237</v>
+        <v>4229846376.305323</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1569262535041205</v>
+        <v>0.1758224717889209</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01986564268708848</v>
+        <v>0.02361869715614184</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>122</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1774719551.792014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3360877175.500569</v>
+        <v>3417512744.074136</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1877642447515543</v>
+        <v>0.1985892297036988</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04261069480218417</v>
+        <v>0.04398704827165041</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>160</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1680438724.497548</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_393.xlsx
+++ b/output/fit_clients/fit_round_393.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1700999379.378649</v>
+        <v>1581300126.5666</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07825361716199331</v>
+        <v>0.1112902434691842</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03824637782136003</v>
+        <v>0.03196687437890986</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2452539165.892087</v>
+        <v>2057551221.574287</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1211315750313004</v>
+        <v>0.1218732734506379</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05040714733866215</v>
+        <v>0.03093218144567722</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3792769515.628302</v>
+        <v>4655663242.306172</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1612737303801603</v>
+        <v>0.1631003805119205</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03392648309500344</v>
+        <v>0.02753624262283114</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4020611655.657246</v>
+        <v>3863269563.138395</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09837624959526436</v>
+        <v>0.07691817988371263</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04453154345107056</v>
+        <v>0.03944625666013604</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2386750402.441</v>
+        <v>2825980383.044313</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1409782141256322</v>
+        <v>0.1416633662658207</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03701481937952966</v>
+        <v>0.03623582196703691</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2315645313.018362</v>
+        <v>2250175286.91094</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09373325204990096</v>
+        <v>0.09952832466590318</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03811369283793567</v>
+        <v>0.03139765329933736</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2958060801.323707</v>
+        <v>2669629114.50206</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1799334671614331</v>
+        <v>0.1834654027690811</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02515645610037407</v>
+        <v>0.02433261452175395</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2057226464.070167</v>
+        <v>2034087343.036352</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1422060643993121</v>
+        <v>0.1605147327242022</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03430363314809295</v>
+        <v>0.02852192344644467</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4873669580.509831</v>
+        <v>4819461101.736798</v>
       </c>
       <c r="F10" t="n">
-        <v>0.200998026080096</v>
+        <v>0.1595716347375713</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04580372186444091</v>
+        <v>0.03546306446533426</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3317311416.803586</v>
+        <v>2933114560.932166</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1335530675853485</v>
+        <v>0.1271877479739595</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03193722012495556</v>
+        <v>0.04468541662432296</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3260210962.211769</v>
+        <v>2181672428.601923</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1953229791100972</v>
+        <v>0.1344686596145294</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04472061752130109</v>
+        <v>0.05181885225519667</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3565416821.157813</v>
+        <v>4578896177.782721</v>
       </c>
       <c r="F13" t="n">
-        <v>0.099488647708672</v>
+        <v>0.08578026867017802</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02162374506510378</v>
+        <v>0.02551771770374247</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3583415652.963301</v>
+        <v>3512479482.976026</v>
       </c>
       <c r="F14" t="n">
-        <v>0.157822429647782</v>
+        <v>0.1465165384339808</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03953979506242678</v>
+        <v>0.03429117231341013</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1823814741.617254</v>
+        <v>1834478369.925219</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07912809755260267</v>
+        <v>0.06916794919314537</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03544167089129693</v>
+        <v>0.03764149076779248</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2177790986.565097</v>
+        <v>1851520168.208537</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08728250117104923</v>
+        <v>0.110978178558274</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03577300497475744</v>
+        <v>0.04743490222283448</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5104052536.25069</v>
+        <v>4189096089.411279</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1314125877796531</v>
+        <v>0.1253670369904507</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03882645244491118</v>
+        <v>0.04657891585247049</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2700937197.169187</v>
+        <v>3699555099.782666</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1628820362818161</v>
+        <v>0.1609856270618248</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02650590064406795</v>
+        <v>0.02979554373803264</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>937972075.7994676</v>
+        <v>1107067587.590091</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1901834645837412</v>
+        <v>0.1795709578018186</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0268288087057845</v>
+        <v>0.01919997594872478</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2288133120.261282</v>
+        <v>1836653758.202591</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1232089237615768</v>
+        <v>0.1299539351215473</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03063182465119347</v>
+        <v>0.02896381538779481</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2306076266.442096</v>
+        <v>1923894368.314288</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06466628969234382</v>
+        <v>0.06845730087282888</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04493962539529876</v>
+        <v>0.04348278204944636</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2707537324.084867</v>
+        <v>3175606596.957837</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1393061387835773</v>
+        <v>0.101834387597238</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04921072455845035</v>
+        <v>0.05097429881928463</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>951644793.1693288</v>
+        <v>1537396595.95942</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1748917350346682</v>
+        <v>0.1854996463417451</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03882041983472891</v>
+        <v>0.05414355048651609</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2504877112.817558</v>
+        <v>3149118339.564108</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1502053297829345</v>
+        <v>0.135850718875147</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02364778086754899</v>
+        <v>0.02418259187139444</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1248727347.59333</v>
+        <v>1345504196.746337</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09961089509297266</v>
+        <v>0.1062062355527559</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02957342274421006</v>
+        <v>0.01882523856167232</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1000429978.130444</v>
+        <v>1030140318.094061</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1228259724331539</v>
+        <v>0.08193458228387608</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02629570956953187</v>
+        <v>0.02486254989494713</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4235464588.633082</v>
+        <v>3982194797.15147</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1319927533302682</v>
+        <v>0.0992676264970809</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01771170517074002</v>
+        <v>0.02039598155360806</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2943733554.840341</v>
+        <v>3617723632.996398</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1359485881177064</v>
+        <v>0.09695916781632347</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04831234858548498</v>
+        <v>0.03287124617293474</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5001310243.546381</v>
+        <v>5437004610.888167</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1430263507453399</v>
+        <v>0.1185176074960373</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03306995496219386</v>
+        <v>0.03583352536561932</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2202308300.7337</v>
+        <v>2253107116.607629</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09174022472417967</v>
+        <v>0.1392881662613161</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02504466960882439</v>
+        <v>0.03682961386069185</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1098734979.066119</v>
+        <v>1482991236.279372</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07721057252905145</v>
+        <v>0.09006640062438016</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03822774124651122</v>
+        <v>0.04567279252311435</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1349015013.185136</v>
+        <v>1655862827.999243</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1096095208170548</v>
+        <v>0.1004483812748175</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02752849730139653</v>
+        <v>0.02478895948158187</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2057819604.206699</v>
+        <v>2455640106.03592</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1353406032730446</v>
+        <v>0.1315066227938247</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05257718994545459</v>
+        <v>0.04882852262013122</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1408951937.501127</v>
+        <v>1076539569.177032</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1020572160540199</v>
+        <v>0.1152810195637422</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02202142204290819</v>
+        <v>0.02459823799471936</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>976773543.422791</v>
+        <v>1222823798.15055</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1093740384831002</v>
+        <v>0.07901578304212427</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04003918759658725</v>
+        <v>0.03949498157374236</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2147469580.938675</v>
+        <v>1990097105.629209</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1231431080473445</v>
+        <v>0.1735598540941541</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02691642623685945</v>
+        <v>0.02512122287523949</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,22 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2634143503.319285</v>
+        <v>2696156404.073324</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08623035822540405</v>
+        <v>0.09430326000046933</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03824751051049129</v>
+        <v>0.0272423471017342</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1852351081.130956</v>
+        <v>1418559532.620605</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1088128130862317</v>
+        <v>0.1202721329903792</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02478317670445686</v>
+        <v>0.030895734823629</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1812298653.63623</v>
+        <v>1775289097.571191</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1884627823713266</v>
+        <v>0.1462123835857625</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02542653497667963</v>
+        <v>0.02720450036122736</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1498792467.186825</v>
+        <v>1442192270.204622</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1233009818332718</v>
+        <v>0.1014396084179171</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05177024348617195</v>
+        <v>0.05690297785922097</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2603144497.935761</v>
+        <v>1991545697.55204</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1587234816124082</v>
+        <v>0.1552642829240213</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04591949795165067</v>
+        <v>0.04094932064275797</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4236218780.820647</v>
+        <v>3875801935.380274</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09099587338793858</v>
+        <v>0.09061260332767786</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04393191774423946</v>
+        <v>0.0340449070806206</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2928107420.15309</v>
+        <v>2533022857.433818</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1972884745572526</v>
+        <v>0.1495235778378946</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0254950250718514</v>
+        <v>0.01910119116343408</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1560527530.641969</v>
+        <v>2168984212.995717</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1007945538461546</v>
+        <v>0.07154519898804258</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03078460969870016</v>
+        <v>0.02631091611308888</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2130999022.721281</v>
+        <v>1594238071.062547</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1542967285216842</v>
+        <v>0.1232467238481401</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05506420641175599</v>
+        <v>0.03620034386200061</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5397117553.574992</v>
+        <v>4702534654.137294</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1081762850429613</v>
+        <v>0.1103476317540043</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05922938364650258</v>
+        <v>0.04321588731763119</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3610107973.767472</v>
+        <v>4050484029.080118</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1553747149999563</v>
+        <v>0.1696950844784758</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05179559472775187</v>
+        <v>0.04147540367999081</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3571958169.9234</v>
+        <v>4409455613.208164</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07448481154374234</v>
+        <v>0.1058332649009919</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03467396769308953</v>
+        <v>0.03856989278584691</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1893039898.901381</v>
+        <v>1276575426.650793</v>
       </c>
       <c r="F49" t="n">
-        <v>0.124978602107016</v>
+        <v>0.1217229625671207</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04406350082773865</v>
+        <v>0.04155624820625477</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3835907897.013617</v>
+        <v>2841066526.021792</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1323169907437075</v>
+        <v>0.1317394450820674</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04519278022228341</v>
+        <v>0.05015889613562302</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1858,16 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1235139097.132268</v>
+        <v>1017196835.298317</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1732789330315006</v>
+        <v>0.1821369996610075</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04756070901024151</v>
+        <v>0.05234693645064191</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3825524891.544493</v>
+        <v>3412035588.99898</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1183795624018821</v>
+        <v>0.1361034889117965</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05979673899471794</v>
+        <v>0.06201558606935752</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3416086834.839329</v>
+        <v>2304403824.296649</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2033385552613291</v>
+        <v>0.1547157046649022</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02485759173371</v>
+        <v>0.02266439028038482</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4041696434.993541</v>
+        <v>4159375727.260719</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1672559455736835</v>
+        <v>0.1609748868186914</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05241660403854308</v>
+        <v>0.03282496513635111</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3123559520.187074</v>
+        <v>3559609496.038421</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1840472166226034</v>
+        <v>0.2119252199406922</v>
       </c>
       <c r="G55" t="n">
-        <v>0.027060901828325</v>
+        <v>0.03071493394058915</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1384827570.082494</v>
+        <v>1195005532.600421</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1501599928199264</v>
+        <v>0.1099881102976211</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04412250241901385</v>
+        <v>0.05661322703935084</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3296980272.145178</v>
+        <v>3667655649.091688</v>
       </c>
       <c r="F57" t="n">
-        <v>0.130015027895376</v>
+        <v>0.1833868361029172</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02140715164214009</v>
+        <v>0.02657744795569007</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1764502572.041904</v>
+        <v>1590141185.49527</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1908437258456011</v>
+        <v>0.1262152496811501</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03759643745348802</v>
+        <v>0.03839131193565843</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3571078919.98448</v>
+        <v>3923096924.28395</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08729802114258001</v>
+        <v>0.1093643555445228</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03669761185697955</v>
+        <v>0.04823733750904368</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3650185167.365843</v>
+        <v>2649213249.604977</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1287593030360296</v>
+        <v>0.1982059861042987</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03294578550760118</v>
+        <v>0.02296980470432245</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2236298853.519853</v>
+        <v>2976654186.051691</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1186059465930654</v>
+        <v>0.1133451559618749</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02089848967811655</v>
+        <v>0.02127069332943333</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1368019313.654387</v>
+        <v>1902071714.072427</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1291500721686872</v>
+        <v>0.1489987640002033</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03488827090620757</v>
+        <v>0.03035247953705767</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5318659248.118913</v>
+        <v>4619624798.851572</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07076897767519198</v>
+        <v>0.08485346986440118</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02967436763791072</v>
+        <v>0.03789951944539609</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4229120233.276102</v>
+        <v>5141254586.422914</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1792478190141187</v>
+        <v>0.1321405622423421</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03417931617154141</v>
+        <v>0.03136760714920912</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4615600940.106821</v>
+        <v>5342149999.584764</v>
       </c>
       <c r="F65" t="n">
-        <v>0.135802468214594</v>
+        <v>0.1643486303531315</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02720757369128957</v>
+        <v>0.0211009035343765</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3463358164.433845</v>
+        <v>3490095428.420941</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1090808126755528</v>
+        <v>0.1368968866475506</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03896229664374199</v>
+        <v>0.03298092751632656</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2580790845.10061</v>
+        <v>3438536147.291161</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08822550147651849</v>
+        <v>0.07056205291122526</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04502234921837268</v>
+        <v>0.03732343222549591</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4328737234.037443</v>
+        <v>4719560170.66468</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1270560950056211</v>
+        <v>0.1452317801720963</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03202274928564856</v>
+        <v>0.04169266483319084</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1967366091.62042</v>
+        <v>2318444143.548748</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1401121966054359</v>
+        <v>0.1578804927901277</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05439181816551364</v>
+        <v>0.03984815016079541</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3681479790.513063</v>
+        <v>3333634228.741658</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07353745414144974</v>
+        <v>0.08121058240126713</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03753841500654791</v>
+        <v>0.03529582374977198</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4040747095.721272</v>
+        <v>3760819703.249654</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1438961673301587</v>
+        <v>0.1568179470593377</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03136260071830132</v>
+        <v>0.02589477992612875</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1610872852.539247</v>
+        <v>2092150983.560235</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08042812440077374</v>
+        <v>0.09715706243391475</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05293094955106437</v>
+        <v>0.03871661268527444</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2382817040.727111</v>
+        <v>2648916769.428406</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09499605060489597</v>
+        <v>0.08996924105251383</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03219549870237844</v>
+        <v>0.03977544618013324</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2566601368.423254</v>
+        <v>2706079918.780899</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1259959511757239</v>
+        <v>0.1239378121189383</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02261782630594661</v>
+        <v>0.02628352605218322</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1953300925.591986</v>
+        <v>1959074507.585433</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1173408784248994</v>
+        <v>0.1201753858194035</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03743899135846093</v>
+        <v>0.02902385484198558</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4037633774.622459</v>
+        <v>4979216141.840747</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08904050792977376</v>
+        <v>0.1146644715503292</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02310598910439434</v>
+        <v>0.02721855832116959</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2204652911.393507</v>
+        <v>1540231083.942703</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1418897213256744</v>
+        <v>0.1580795646272948</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0276259902361817</v>
+        <v>0.02973410595048219</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3150081228.028547</v>
+        <v>4646813139.058234</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1001201775146132</v>
+        <v>0.08963966437092957</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03611704334122141</v>
+        <v>0.03976927850038527</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1624070723.881063</v>
+        <v>1363054062.279396</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1433060374578578</v>
+        <v>0.1531264383986874</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0385608171085862</v>
+        <v>0.03594041464137951</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4513605686.685864</v>
+        <v>3983097992.043992</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09658326642917529</v>
+        <v>0.08097384488415653</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02839567704272488</v>
+        <v>0.03172606105795127</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4518178011.726539</v>
+        <v>3646769459.328103</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09657342105103475</v>
+        <v>0.1171048510717897</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02426998205489762</v>
+        <v>0.02826252910329588</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3807895792.196002</v>
+        <v>5386269000.973533</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1816235444587319</v>
+        <v>0.1813869110405543</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02466684092694254</v>
+        <v>0.02080917341135844</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2302622523.545039</v>
+        <v>2491109823.492605</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1126752890501164</v>
+        <v>0.09834531323333964</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03791982829799306</v>
+        <v>0.04078232222031048</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2118494949.490311</v>
+        <v>2334520512.158748</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1145374649993904</v>
+        <v>0.0846669123436288</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03503996072883409</v>
+        <v>0.03207459951528201</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3480768870.00969</v>
+        <v>3402009721.350804</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1454791004938682</v>
+        <v>0.1478062890050043</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04758224076987966</v>
+        <v>0.05547436940030957</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1726944300.441144</v>
+        <v>2073097109.076663</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1674791798655652</v>
+        <v>0.1492479384278222</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02252384203366225</v>
+        <v>0.02293855917519442</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>927473697.9485445</v>
+        <v>1380386112.21719</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1458243011056315</v>
+        <v>0.128033640099272</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03053437306524885</v>
+        <v>0.04120706494502085</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2411337688.588474</v>
+        <v>2441990545.512818</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1497625187990315</v>
+        <v>0.1427979780795962</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03348787594000209</v>
+        <v>0.03585866184287648</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3406898316.426384</v>
+        <v>2443710797.071473</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1018638225305036</v>
+        <v>0.1457635102824903</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02748800375385088</v>
+        <v>0.03734163585331624</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1728783923.221428</v>
+        <v>1557068775.423918</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1188925122723337</v>
+        <v>0.09112809771788286</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05015208153818979</v>
+        <v>0.04815020455386568</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2106552083.191025</v>
+        <v>1495435133.183677</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1932688640291958</v>
+        <v>0.1515829562963498</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04957438639534604</v>
+        <v>0.06025458367912948</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2878003135.438451</v>
+        <v>2177196641.078423</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09719621355473415</v>
+        <v>0.09430865507332108</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03965100544968633</v>
+        <v>0.03042001922791916</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4818214213.439786</v>
+        <v>4564579421.100442</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1263219270441345</v>
+        <v>0.1272296146336614</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05231167478054675</v>
+        <v>0.0456197336037417</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2394672634.281601</v>
+        <v>2271659745.262971</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1684674268150105</v>
+        <v>0.1179847462547948</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03241424659397181</v>
+        <v>0.0388870728516671</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2655947922.010156</v>
+        <v>2518453673.542753</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1124773562082796</v>
+        <v>0.08903205753332089</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03773474886737512</v>
+        <v>0.03937469034131243</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1750106055.243157</v>
+        <v>1621931465.666785</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1098721159587111</v>
+        <v>0.1384911086709465</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04412751697075941</v>
+        <v>0.04344350256887373</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4673286087.655747</v>
+        <v>3690069371.876491</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1675682717271946</v>
+        <v>0.1142019574956837</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0221271197512553</v>
+        <v>0.02094097730556366</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3428989124.539618</v>
+        <v>3723592034.780916</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08677462896509885</v>
+        <v>0.1052037181153765</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0309391543771643</v>
+        <v>0.03185803572340708</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3185587487.008901</v>
+        <v>3272274618.069507</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09380424332829206</v>
+        <v>0.1466022114262886</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03057206949772033</v>
+        <v>0.0270541535356794</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4229846376.305323</v>
+        <v>4540049033.547048</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1758224717889209</v>
+        <v>0.1363533117316867</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02361869715614184</v>
+        <v>0.0213050303280557</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,16 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3417512744.074136</v>
+        <v>2997784042.588205</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1985892297036988</v>
+        <v>0.1516716590019266</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04398704827165041</v>
+        <v>0.04192932020753739</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_393.xlsx
+++ b/output/fit_clients/fit_round_393.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1581300126.5666</v>
+        <v>2341814884.019</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1112902434691842</v>
+        <v>0.1135920338906463</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03196687437890986</v>
+        <v>0.04531526789935708</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2057551221.574287</v>
+        <v>2574511777.372087</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1218732734506379</v>
+        <v>0.1535578115609919</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03093218144567722</v>
+        <v>0.04105332874888159</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,16 +571,25 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4655663242.306172</v>
+        <v>4552654116.520641</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1631003805119205</v>
+        <v>0.1461687197309953</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02753624262283114</v>
+        <v>0.0258364063301588</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>200</v>
+      </c>
+      <c r="J4" t="n">
+        <v>392</v>
+      </c>
+      <c r="K4" t="n">
+        <v>48.27025188236069</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3863269563.138395</v>
+        <v>2833232058.02142</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07691817988371263</v>
+        <v>0.08819704049991815</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03944625666013604</v>
+        <v>0.04065996874687325</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>160</v>
+      </c>
+      <c r="J5" t="n">
+        <v>391</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2825980383.044313</v>
+        <v>2593072639.716213</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1416633662658207</v>
+        <v>0.1019000336997496</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03623582196703691</v>
+        <v>0.04613554412351442</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +678,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2250175286.91094</v>
+        <v>2281990321.508531</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09952832466590318</v>
+        <v>0.08302825277693511</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03139765329933736</v>
+        <v>0.03419868139252513</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2669629114.50206</v>
+        <v>3612553946.613681</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1834654027690811</v>
+        <v>0.1933304470097791</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02433261452175395</v>
+        <v>0.02926959438887851</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>106</v>
+      </c>
+      <c r="J8" t="n">
+        <v>393</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2034087343.036352</v>
+        <v>1492307542.888649</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1605147327242022</v>
+        <v>0.1336384886352888</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02852192344644467</v>
+        <v>0.03051552365745092</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4819461101.736798</v>
+        <v>4070105795.198419</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1595716347375713</v>
+        <v>0.2135615262831087</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03546306446533426</v>
+        <v>0.05070059612587922</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>320</v>
+      </c>
+      <c r="J10" t="n">
+        <v>393</v>
+      </c>
+      <c r="K10" t="n">
+        <v>49.80327451298818</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2933114560.932166</v>
+        <v>3049729705.063024</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1271877479739595</v>
+        <v>0.1261326664266733</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04468541662432296</v>
+        <v>0.04590056427195431</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>165</v>
+      </c>
+      <c r="J11" t="n">
+        <v>392</v>
+      </c>
+      <c r="K11" t="n">
+        <v>33.38645697158196</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2181672428.601923</v>
+        <v>2970197170.684912</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1344686596145294</v>
+        <v>0.1670293728105736</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05181885225519667</v>
+        <v>0.03531428271580994</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +892,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4578896177.782721</v>
+        <v>3677577508.534912</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08578026867017802</v>
+        <v>0.06370367744606045</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02551771770374247</v>
+        <v>0.02115610901546809</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>205</v>
+      </c>
+      <c r="J13" t="n">
+        <v>392</v>
+      </c>
+      <c r="K13" t="n">
+        <v>42.78681518965045</v>
       </c>
     </row>
     <row r="14">
@@ -822,17 +929,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3512479482.976026</v>
+        <v>3053702684.971148</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1465165384339808</v>
+        <v>0.1819862653472434</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03429117231341013</v>
+        <v>0.03720832581803264</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>81</v>
+      </c>
+      <c r="J14" t="n">
+        <v>387</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +964,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1834478369.925219</v>
+        <v>1156400372.85119</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06916794919314537</v>
+        <v>0.07330515275091307</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03764149076779248</v>
+        <v>0.0311737511215612</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +999,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1851520168.208537</v>
+        <v>2126844265.325284</v>
       </c>
       <c r="F16" t="n">
-        <v>0.110978178558274</v>
+        <v>0.08475255674358786</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04743490222283448</v>
+        <v>0.0424100469738644</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,16 +1034,25 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4189096089.411279</v>
+        <v>5211628815.724361</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1253670369904507</v>
+        <v>0.1161421104465952</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04657891585247049</v>
+        <v>0.03783196563436751</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>189</v>
+      </c>
+      <c r="J17" t="n">
+        <v>393</v>
+      </c>
+      <c r="K17" t="n">
+        <v>50.46866781804045</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1065,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3699555099.782666</v>
+        <v>3692369975.230199</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1609856270618248</v>
+        <v>0.1847290022278012</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02979554373803264</v>
+        <v>0.02299225769187289</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>94</v>
+      </c>
+      <c r="J18" t="n">
+        <v>393</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1107067587.590091</v>
+        <v>1097052913.399808</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1795709578018186</v>
+        <v>0.1284048701751402</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01919997594872478</v>
+        <v>0.02253630077410035</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1141,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1836653758.202591</v>
+        <v>2019730581.595765</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1299539351215473</v>
+        <v>0.1129812592320979</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02896381538779481</v>
+        <v>0.02096291829989449</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1923894368.314288</v>
+        <v>2438540699.151351</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06845730087282888</v>
+        <v>0.0732851167916853</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04348278204944636</v>
+        <v>0.04579778345490837</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1205,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3175606596.957837</v>
+        <v>3534192970.510334</v>
       </c>
       <c r="F22" t="n">
-        <v>0.101834387597238</v>
+        <v>0.1382895633359078</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05097429881928463</v>
+        <v>0.0470843200310516</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>107</v>
+      </c>
+      <c r="J22" t="n">
+        <v>393</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1537396595.95942</v>
+        <v>1060472848.97155</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1854996463417451</v>
+        <v>0.124839427899726</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05414355048651609</v>
+        <v>0.04919543767184617</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1275,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3149118339.564108</v>
+        <v>3498316255.498447</v>
       </c>
       <c r="F24" t="n">
-        <v>0.135850718875147</v>
+        <v>0.09203606354768117</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02418259187139444</v>
+        <v>0.03586563260366168</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>121</v>
+      </c>
+      <c r="J24" t="n">
+        <v>393</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1345504196.746337</v>
+        <v>1430828124.315727</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1062062355527559</v>
+        <v>0.09834921165226389</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01882523856167232</v>
+        <v>0.02025808511574652</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1030140318.094061</v>
+        <v>937647612.2169085</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08193458228387608</v>
+        <v>0.1009974568689427</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02486254989494713</v>
+        <v>0.03762959356184585</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1380,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3982194797.15147</v>
+        <v>3618978251.92552</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0992676264970809</v>
+        <v>0.1512787149968666</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02039598155360806</v>
+        <v>0.01810566119136438</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>164</v>
+      </c>
+      <c r="J27" t="n">
+        <v>392</v>
+      </c>
+      <c r="K27" t="n">
+        <v>44.96440405614076</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1417,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3617723632.996398</v>
+        <v>3575942577.620615</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09695916781632347</v>
+        <v>0.131482933305526</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03287124617293474</v>
+        <v>0.03431135768326104</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>94</v>
+      </c>
+      <c r="J28" t="n">
+        <v>393</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,23 +1452,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5437004610.888167</v>
+        <v>5317241238.535205</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1185176074960373</v>
+        <v>0.1382569908107536</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03583352536561932</v>
+        <v>0.03896343326235284</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>335</v>
+      </c>
+      <c r="J29" t="n">
+        <v>393</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2253107116.607629</v>
+        <v>1677454305.214929</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1392881662613161</v>
+        <v>0.09418833484566723</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03682961386069185</v>
+        <v>0.0275153843521583</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1482991236.279372</v>
+        <v>1346930615.281646</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09006640062438016</v>
+        <v>0.110566008987615</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04567279252311435</v>
+        <v>0.03362860103421336</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1655862827.999243</v>
+        <v>1261192533.726068</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1004483812748175</v>
+        <v>0.09677815456340913</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02478895948158187</v>
+        <v>0.0382059571084081</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1598,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2455640106.03592</v>
+        <v>2190547287.706344</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1315066227938247</v>
+        <v>0.1579825028487102</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04882852262013122</v>
+        <v>0.04830746825108013</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1076539569.177032</v>
+        <v>1426728708.617</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1152810195637422</v>
+        <v>0.07465550152678728</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02459823799471936</v>
+        <v>0.02800434522115424</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1222823798.15055</v>
+        <v>1314007527.556149</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07901578304212427</v>
+        <v>0.1142008277457168</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03949498157374236</v>
+        <v>0.03669732153077934</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>1990097105.629209</v>
+        <v>2304747391.50657</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1735598540941541</v>
+        <v>0.1256025685877818</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02512122287523949</v>
+        <v>0.02776352763019821</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2696156404.073324</v>
+        <v>2133303634.178223</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09430326000046933</v>
+        <v>0.0854554490683648</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0272423471017342</v>
+        <v>0.03237913182571566</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1418559532.620605</v>
+        <v>2167711853.91725</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1202721329903792</v>
+        <v>0.09726472906086979</v>
       </c>
       <c r="G38" t="n">
-        <v>0.030895734823629</v>
+        <v>0.02633789123041117</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1775289097.571191</v>
+        <v>1907048105.677822</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1462123835857625</v>
+        <v>0.1855595115434817</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02720450036122736</v>
+        <v>0.02925208581174343</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1843,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1442192270.204622</v>
+        <v>1531505743.694795</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1014396084179171</v>
+        <v>0.1156031672491382</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05690297785922097</v>
+        <v>0.05368792763187368</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1878,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1991545697.55204</v>
+        <v>2917211659.027965</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1552642829240213</v>
+        <v>0.1150745753132214</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04094932064275797</v>
+        <v>0.04372612041687272</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1907,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3875801935.380274</v>
+        <v>2744651168.205766</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09061260332767786</v>
+        <v>0.1187549145621775</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0340449070806206</v>
+        <v>0.04401244030262102</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>171</v>
+      </c>
+      <c r="J42" t="n">
+        <v>392</v>
+      </c>
+      <c r="K42" t="n">
+        <v>29.42183930550031</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2533022857.433818</v>
+        <v>2661807944.66484</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1495235778378946</v>
+        <v>0.1563278782266027</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01910119116343408</v>
+        <v>0.02327298362432858</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2168984212.995717</v>
+        <v>1451796433.393644</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07154519898804258</v>
+        <v>0.07340762370235823</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02631091611308888</v>
+        <v>0.02416392907219038</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1594238071.062547</v>
+        <v>1953006883.31945</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1232467238481401</v>
+        <v>0.1648220489039908</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03620034386200061</v>
+        <v>0.04458025980869437</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2049,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4702534654.137294</v>
+        <v>3565297725.726915</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1103476317540043</v>
+        <v>0.160696588681028</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04321588731763119</v>
+        <v>0.03707541441016014</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>236</v>
+      </c>
+      <c r="J46" t="n">
+        <v>392</v>
+      </c>
+      <c r="K46" t="n">
+        <v>40.10721887588073</v>
       </c>
     </row>
     <row r="47">
@@ -1746,17 +2092,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4050484029.080118</v>
+        <v>3153292762.068294</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1696950844784758</v>
+        <v>0.1332440082950228</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04147540367999081</v>
+        <v>0.05719675135304444</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>176</v>
+      </c>
+      <c r="J47" t="n">
+        <v>391</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2121,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4409455613.208164</v>
+        <v>3630443158.639327</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1058332649009919</v>
+        <v>0.07125617603796584</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03856989278584691</v>
+        <v>0.03346354354518336</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>203</v>
+      </c>
+      <c r="J48" t="n">
+        <v>393</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1276575426.650793</v>
+        <v>1446469326.776612</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1217229625671207</v>
+        <v>0.1586645092731758</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04155624820625477</v>
+        <v>0.03704971028356622</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2191,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2841066526.021792</v>
+        <v>3475449012.372458</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1317394450820674</v>
+        <v>0.1734850327948033</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05015889613562302</v>
+        <v>0.04175848506830971</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>134</v>
+      </c>
+      <c r="J50" t="n">
+        <v>387</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1017196835.298317</v>
+        <v>1413173558.02086</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1821369996610075</v>
+        <v>0.1968833021163898</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05234693645064191</v>
+        <v>0.05134072274191698</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2261,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3412035588.99898</v>
+        <v>4369806697.969796</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1361034889117965</v>
+        <v>0.1209787936407913</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06201558606935752</v>
+        <v>0.05906658668537747</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>229</v>
+      </c>
+      <c r="J52" t="n">
+        <v>393</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2296,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2304403824.296649</v>
+        <v>2320363366.645658</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1547157046649022</v>
+        <v>0.1230289942848497</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02266439028038482</v>
+        <v>0.03138496645651886</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>54</v>
+      </c>
+      <c r="J53" t="n">
+        <v>387</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2331,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4159375727.260719</v>
+        <v>3579485873.746774</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1609748868186914</v>
+        <v>0.1556887231502108</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03282496513635111</v>
+        <v>0.04920466961061221</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>209</v>
+      </c>
+      <c r="J54" t="n">
+        <v>393</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1970,17 +2372,24 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3559609496.038421</v>
+        <v>3060400979.701131</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2119252199406922</v>
+        <v>0.2107786580404605</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03071493394058915</v>
+        <v>0.02676278734326883</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>190</v>
+      </c>
+      <c r="J55" t="n">
+        <v>389</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1998,17 +2407,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1195005532.600421</v>
+        <v>1357027028.665273</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1099881102976211</v>
+        <v>0.1556268314676807</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05661322703935084</v>
+        <v>0.05568234711439244</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2436,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3667655649.091688</v>
+        <v>3318700595.418046</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1833868361029172</v>
+        <v>0.1343877643280129</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02657744795569007</v>
+        <v>0.02202499338693912</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>167</v>
+      </c>
+      <c r="J57" t="n">
+        <v>391</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2471,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1590141185.49527</v>
+        <v>1612719574.406833</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1262152496811501</v>
+        <v>0.1349242486159778</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03839131193565843</v>
+        <v>0.02856242832145271</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2512,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3923096924.28395</v>
+        <v>5316394404.645444</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1093643555445228</v>
+        <v>0.1194712957241325</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04823733750904368</v>
+        <v>0.04362240911031394</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>191</v>
+      </c>
+      <c r="J59" t="n">
+        <v>393</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2541,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2649213249.604977</v>
+        <v>2474601303.564175</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1982059861042987</v>
+        <v>0.1406631567737757</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02296980470432245</v>
+        <v>0.03253846741742975</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>72</v>
+      </c>
+      <c r="J60" t="n">
+        <v>391</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2576,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2976654186.051691</v>
+        <v>2237909429.780287</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1133451559618749</v>
+        <v>0.129889448654601</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02127069332943333</v>
+        <v>0.02368670069516361</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>13</v>
+      </c>
+      <c r="J61" t="n">
+        <v>384</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2611,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1902071714.072427</v>
+        <v>1773936071.07831</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1489987640002033</v>
+        <v>0.1449145174498808</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03035247953705767</v>
+        <v>0.03453932291410462</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2646,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4619624798.851572</v>
+        <v>5308785803.246521</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08485346986440118</v>
+        <v>0.09007074438816456</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03789951944539609</v>
+        <v>0.03460185067367298</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>195</v>
+      </c>
+      <c r="J63" t="n">
+        <v>393</v>
+      </c>
+      <c r="K63" t="n">
+        <v>49.9937444189101</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2683,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5141254586.422914</v>
+        <v>5127390016.446382</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1321405622423421</v>
+        <v>0.139259650585512</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03136760714920912</v>
+        <v>0.03359068247413714</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>195</v>
+      </c>
+      <c r="J64" t="n">
+        <v>393</v>
+      </c>
+      <c r="K64" t="n">
+        <v>50.51442335086507</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2720,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5342149999.584764</v>
+        <v>3938728739.436364</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1643486303531315</v>
+        <v>0.106986661677246</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0211009035343765</v>
+        <v>0.02799637953714883</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>293</v>
+      </c>
+      <c r="J65" t="n">
+        <v>392</v>
+      </c>
+      <c r="K65" t="n">
+        <v>48.04567534898473</v>
       </c>
     </row>
     <row r="66">
@@ -2278,17 +2763,24 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3490095428.420941</v>
+        <v>4071634396.050763</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1368968866475506</v>
+        <v>0.1106044469140277</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03298092751632656</v>
+        <v>0.03855086388213586</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>194</v>
+      </c>
+      <c r="J66" t="n">
+        <v>393</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2792,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3438536147.291161</v>
+        <v>3324589357.736928</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07056205291122526</v>
+        <v>0.07322182490725902</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03732343222549591</v>
+        <v>0.04796141036203869</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>389</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2827,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4719560170.66468</v>
+        <v>4789717402.389246</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1452317801720963</v>
+        <v>0.1198147903305878</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04169266483319084</v>
+        <v>0.03424853790201853</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>213</v>
+      </c>
+      <c r="J68" t="n">
+        <v>393</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2862,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2318444143.548748</v>
+        <v>1703294271.648582</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1578804927901277</v>
+        <v>0.1368408404068085</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03984815016079541</v>
+        <v>0.04513568464518339</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2897,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3333634228.741658</v>
+        <v>3344803516.363944</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08121058240126713</v>
+        <v>0.09924625047929068</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03529582374977198</v>
+        <v>0.03950048279900169</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>54</v>
+      </c>
+      <c r="J70" t="n">
+        <v>389</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2932,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3760819703.249654</v>
+        <v>4204984683.914141</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1568179470593377</v>
+        <v>0.180872150239321</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02589477992612875</v>
+        <v>0.02841014899781465</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>279</v>
+      </c>
+      <c r="J71" t="n">
+        <v>393</v>
+      </c>
+      <c r="K71" t="n">
+        <v>50.33129349712311</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2969,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2092150983.560235</v>
+        <v>1872477855.248278</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09715706243391475</v>
+        <v>0.0803549387552272</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03871661268527444</v>
+        <v>0.04607884331929576</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3004,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2648916769.428406</v>
+        <v>3470332141.978354</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08996924105251383</v>
+        <v>0.07031083203378355</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03977544618013324</v>
+        <v>0.04594628645640587</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>29</v>
+      </c>
+      <c r="J73" t="n">
+        <v>382</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3039,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2706079918.780899</v>
+        <v>3726285460.25876</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1239378121189383</v>
+        <v>0.1214184875794598</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02628352605218322</v>
+        <v>0.02959244395518168</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>112</v>
+      </c>
+      <c r="J74" t="n">
+        <v>393</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3074,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1959074507.585433</v>
+        <v>2312326644.477193</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1201753858194035</v>
+        <v>0.1630289618140773</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02902385484198558</v>
+        <v>0.03140902391986755</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3109,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4979216141.840747</v>
+        <v>4065630166.987572</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1146644715503292</v>
+        <v>0.09143915021117771</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02721855832116959</v>
+        <v>0.02155241728193626</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>185</v>
+      </c>
+      <c r="J76" t="n">
+        <v>393</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3144,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1540231083.942703</v>
+        <v>2264959701.694634</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1580795646272948</v>
+        <v>0.120358175262128</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02973410595048219</v>
+        <v>0.02046077871991226</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,16 +3185,25 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4646813139.058234</v>
+        <v>4085840656.911492</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08963966437092957</v>
+        <v>0.1303223499924881</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03976927850038527</v>
+        <v>0.0551836766522236</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>196</v>
+      </c>
+      <c r="J78" t="n">
+        <v>392</v>
+      </c>
+      <c r="K78" t="n">
+        <v>49.57399164590291</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3216,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1363054062.279396</v>
+        <v>1884172009.782128</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1531264383986874</v>
+        <v>0.1284978552354231</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03594041464137951</v>
+        <v>0.03705404004335085</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3251,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3983097992.043992</v>
+        <v>5088169742.6626</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08097384488415653</v>
+        <v>0.09176591193463497</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03172606105795127</v>
+        <v>0.02741108180654454</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>192</v>
+      </c>
+      <c r="J80" t="n">
+        <v>392</v>
+      </c>
+      <c r="K80" t="n">
+        <v>41.35635525104696</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3288,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3646769459.328103</v>
+        <v>4307813691.494791</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1171048510717897</v>
+        <v>0.1252559015721033</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02826252910329588</v>
+        <v>0.02703532999317658</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>183</v>
+      </c>
+      <c r="J81" t="n">
+        <v>392</v>
+      </c>
+      <c r="K81" t="n">
+        <v>46.61672111486862</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3325,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5386269000.973533</v>
+        <v>4297300496.683133</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1813869110405543</v>
+        <v>0.20062240397338</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02080917341135844</v>
+        <v>0.02467636675308628</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>270</v>
+      </c>
+      <c r="J82" t="n">
+        <v>392</v>
+      </c>
+      <c r="K82" t="n">
+        <v>48.32319151541406</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3362,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2491109823.492605</v>
+        <v>1713709435.926726</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09834531323333964</v>
+        <v>0.1179207419218416</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04078232222031048</v>
+        <v>0.03687993388131266</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3397,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2334520512.158748</v>
+        <v>1893658468.435757</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0846669123436288</v>
+        <v>0.10258913499388</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03207459951528201</v>
+        <v>0.03685104007651938</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3432,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3402009721.350804</v>
+        <v>2541689485.589488</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1478062890050043</v>
+        <v>0.1419533922392271</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05547436940030957</v>
+        <v>0.04186261274826938</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>50</v>
+      </c>
+      <c r="J85" t="n">
+        <v>373</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3467,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2073097109.076663</v>
+        <v>2007043989.715601</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1492479384278222</v>
+        <v>0.1123927977446073</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02293855917519442</v>
+        <v>0.01962633095458365</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3502,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1380386112.21719</v>
+        <v>1326672524.616365</v>
       </c>
       <c r="F87" t="n">
-        <v>0.128033640099272</v>
+        <v>0.1173719955942841</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04120706494502085</v>
+        <v>0.0268696498852153</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,22 +3537,31 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2441990545.512818</v>
+        <v>2869799090.68868</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1427979780795962</v>
+        <v>0.1113500297459715</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03585866184287648</v>
+        <v>0.02458798407878935</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>50</v>
+      </c>
+      <c r="J88" t="n">
+        <v>392</v>
+      </c>
+      <c r="K88" t="n">
+        <v>40.04413200793179</v>
       </c>
     </row>
     <row r="89">
@@ -2922,17 +3580,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2443710797.071473</v>
+        <v>2335402067.601653</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1457635102824903</v>
+        <v>0.1065627133048926</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03734163585331624</v>
+        <v>0.03202397246269709</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3615,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1557068775.423918</v>
+        <v>1433232105.331325</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09112809771788286</v>
+        <v>0.1295913018216011</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04815020455386568</v>
+        <v>0.05139612441889341</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1495435133.183677</v>
+        <v>1964879495.388074</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1515829562963498</v>
+        <v>0.1271860631994393</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06025458367912948</v>
+        <v>0.04673354505390696</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2177196641.078423</v>
+        <v>2456321497.646581</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09430865507332108</v>
+        <v>0.1043370104268709</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03042001922791916</v>
+        <v>0.04486526859400453</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3714,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4564579421.100442</v>
+        <v>3930729556.574884</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1272296146336614</v>
+        <v>0.1364561111687054</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0456197336037417</v>
+        <v>0.04931372202250414</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>187</v>
+      </c>
+      <c r="J93" t="n">
+        <v>392</v>
+      </c>
+      <c r="K93" t="n">
+        <v>47.75893668281286</v>
       </c>
     </row>
     <row r="94">
@@ -3062,17 +3757,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2271659745.262971</v>
+        <v>2338710026.630085</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1179847462547948</v>
+        <v>0.1448353061827669</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0388870728516671</v>
+        <v>0.03393831214123736</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3792,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2518453673.542753</v>
+        <v>3045720092.097809</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08903205753332089</v>
+        <v>0.1132787566978921</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03937469034131243</v>
+        <v>0.03343589290176012</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3827,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1621931465.666785</v>
+        <v>2392786202.831662</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1384911086709465</v>
+        <v>0.1083131004831733</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04344350256887373</v>
+        <v>0.04443403592701299</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,16 +3862,25 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3690069371.876491</v>
+        <v>3788206988.2189</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1142019574956837</v>
+        <v>0.168926351611396</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02094097730556366</v>
+        <v>0.0230385865928468</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>205</v>
+      </c>
+      <c r="J97" t="n">
+        <v>392</v>
+      </c>
+      <c r="K97" t="n">
+        <v>44.30828776093052</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3723592034.780916</v>
+        <v>3036023185.752767</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1052037181153765</v>
+        <v>0.1044482115463378</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03185803572340708</v>
+        <v>0.02955698938682222</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>100</v>
+      </c>
+      <c r="J98" t="n">
+        <v>391</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3934,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3272274618.069507</v>
+        <v>2186525744.864586</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1466022114262886</v>
+        <v>0.09440305100431251</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0270541535356794</v>
+        <v>0.02763215151220438</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4540049033.547048</v>
+        <v>3630203864.842249</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1363533117316867</v>
+        <v>0.1379330263087342</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0213050303280557</v>
+        <v>0.02422038413298848</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>182</v>
+      </c>
+      <c r="J100" t="n">
+        <v>392</v>
+      </c>
+      <c r="K100" t="n">
+        <v>40.73867142776182</v>
       </c>
     </row>
     <row r="101">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2997784042.588205</v>
+        <v>3500531637.179945</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1516716590019266</v>
+        <v>0.157377468431253</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04192932020753739</v>
+        <v>0.05817711735983198</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>36</v>
+      </c>
+      <c r="J101" t="n">
+        <v>393</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
